--- a/com.cognizantMicro/src/test/resources/com/cognizant/excel/testdata.xlsx
+++ b/com.cognizantMicro/src/test/resources/com/cognizant/excel/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/eclipse-workspace/com.cognizantMicro/src/test/resources/com/cognizant/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/git/CognizantMicro/com.cognizantMicro/src/test/resources/com/cognizant/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233EBD0D-1F53-8B4F-9382-6B279DA32ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31486100-623A-AD4B-A8F2-34E5ECA2CA70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="25440" windowHeight="14500" xr2:uid="{2911290C-75F9-1941-83B7-09FF50FD7B43}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Y</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>SimpleLinksTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
